--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/21 Bhangar Branch Khal/Bhangar_Branch_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/21 Bhangar Branch Khal/Bhangar_Branch_Khal_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58966A-E60C-4436-A4E6-7EED074E2B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36032E6C-5059-4336-BED6-C91307F0253D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Raw_Cross_Section_Data!#REF!</definedName>
@@ -656,7 +655,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,18 +765,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
@@ -793,9 +780,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,6 +788,18 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -889,7 +885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$5:$B$17</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$5:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -937,7 +933,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$5:$C$17</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$5:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1006,7 +1002,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$5:$I$17</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$5:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1045,7 +1041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$5:$J$17</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$5:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1297,7 +1293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$195:$B$210</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$195:$B$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1354,7 +1350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$195:$C$210</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$195:$C$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1432,7 +1428,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$195:$I$210</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$195:$I$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1468,7 +1464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$195:$J$210</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$195:$J$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1717,7 +1713,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$214:$B$227</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$214:$B$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1768,7 +1764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$214:$C$227</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$214:$C$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1840,7 +1836,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$214:$I$227</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$214:$I$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1873,7 +1869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$214:$J$227</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$214:$J$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2119,7 +2115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$231:$B$257</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$231:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2176,7 +2172,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$231:$C$257</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$231:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2254,7 +2250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$232:$I$257</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$232:$I$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2302,7 +2298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$232:$J$257</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$232:$J$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2563,7 +2559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$259:$B$275</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$259:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2623,7 +2619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$259:$C$275</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$259:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2704,7 +2700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$259:$I$275</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$259:$I$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2743,7 +2739,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$259:$J$275</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$259:$J$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2995,7 +2991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$278:$B$289</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$278:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3040,7 +3036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$278:$C$289</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$278:$C$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3106,7 +3102,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$278:$I$289</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$278:$I$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3130,7 +3126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$278:$J$289</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$278:$J$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3367,7 +3363,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$291:$B$307</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$291:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3427,7 +3423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$291:$C$307</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$291:$C$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3508,7 +3504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$291:$I$307</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$291:$I$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3547,7 +3543,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$291:$J$307</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$291:$J$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3799,7 +3795,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$309:$B$322</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$309:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3850,7 +3846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$309:$C$322</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$309:$C$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3922,7 +3918,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$310:$I$322</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$310:$I$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3970,7 +3966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$310:$J$322</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$310:$J$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4231,7 +4227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$326:$B$341</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$326:$B$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4288,7 +4284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$326:$C$341</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$326:$C$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4366,7 +4362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$327:$I$341</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$327:$I$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4408,7 +4404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$327:$J$341</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$327:$J$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4663,7 +4659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$345:$B$361</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$345:$B$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4723,7 +4719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$345:$C$361</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$345:$C$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4804,7 +4800,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$345:$I$361</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$345:$I$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4849,7 +4845,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$345:$J$361</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$345:$J$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5107,7 +5103,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$365:$B$387</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$365:$B$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5167,7 +5163,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$365:$C$387</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$365:$C$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5248,7 +5244,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$366:$I$387</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$366:$I$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5293,7 +5289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$366:$J$387</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$366:$J$387</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5551,7 +5547,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$21:$B$36</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$21:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5608,7 +5604,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$21:$C$36</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$21:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5686,7 +5682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$22:$I$36</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$22:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5728,7 +5724,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$22:$J$36</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$22:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5983,7 +5979,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$391:$B$414</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$391:$B$414</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6043,7 +6039,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$391:$C$414</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$391:$C$414</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6124,7 +6120,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$391:$I$415</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$391:$I$415</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -6169,7 +6165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$391:$J$415</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$391:$J$415</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -6427,7 +6423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$40:$B$62</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$40:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6487,7 +6483,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$40:$C$62</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$40:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6568,7 +6564,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$40:$I$62</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$40:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6619,7 +6615,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$40:$J$62</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$40:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6883,7 +6879,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$65:$B$84</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$65:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6952,7 +6948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$65:$C$84</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$65:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7042,7 +7038,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$65:$I$84</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$65:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7093,7 +7089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$65:$J$84</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$65:$J$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7357,7 +7353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$88:$B$104</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$88:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7417,7 +7413,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$88:$C$104</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$88:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7498,7 +7494,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$89:$I$104</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$89:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7543,7 +7539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$89:$J$104</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$89:$J$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7801,7 +7797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$108:$B$127</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$108:$B$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7858,7 +7854,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$108:$C$127</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$108:$C$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7936,7 +7932,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$108:$I$127</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$108:$I$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -7984,7 +7980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$108:$J$127</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$108:$J$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -8245,7 +8241,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$130:$B$149</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$130:$B$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -8311,7 +8307,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$130:$C$149</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$130:$C$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -8398,7 +8394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$131:$I$149</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$131:$I$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8461,7 +8457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$131:$J$149</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$131:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8737,7 +8733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$152:$B$167</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$152:$B$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8791,7 +8787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$152:$C$167</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$152:$C$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8866,7 +8862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$152:$I$167</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$152:$I$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8905,7 +8901,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$152:$J$167</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$152:$J$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -9157,7 +9153,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$B$170:$B$192</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$B$170:$B$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -9211,7 +9207,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$C$170:$C$192</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$C$170:$C$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -9286,7 +9282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$I$170:$I$192</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$I$170:$I$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -9340,7 +9336,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Bhangar Branch khal (data)'!$J$170:$J$192</c:f>
+              <c:f>'[1]Bhangar Branch khal (data)'!$J$170:$J$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -10333,593 +10329,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Long section Nawdanga khal"/>
-      <sheetName val="Outfall khal"/>
-      <sheetName val="Nawdanga khal"/>
-      <sheetName val="Abstract of earth"/>
-      <sheetName val="Nawdanga khal (Data)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>2.1709999999999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>10</v>
-          </cell>
-          <cell r="C7">
-            <v>0.02</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>2.1840000000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>11</v>
-          </cell>
-          <cell r="C8">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>10</v>
-          </cell>
-          <cell r="I8">
-            <v>2.1960000000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>13</v>
-          </cell>
-          <cell r="C9">
-            <v>-0.02</v>
-          </cell>
-          <cell r="H9">
-            <v>12</v>
-          </cell>
-          <cell r="I9">
-            <v>1.306</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>15</v>
-          </cell>
-          <cell r="C10">
-            <v>-2.5999999999999999E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>15</v>
-          </cell>
-          <cell r="I10">
-            <v>0.70899999999999996</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>16</v>
-          </cell>
-          <cell r="C11">
-            <v>-8.1000000000000003E-2</v>
-          </cell>
-          <cell r="H11">
-            <v>18</v>
-          </cell>
-          <cell r="I11">
-            <v>-0.20799999999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>17</v>
-          </cell>
-          <cell r="C12">
-            <v>-2.1999999999999999E-2</v>
-          </cell>
-          <cell r="H12">
-            <v>21</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.69599999999999995</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>19</v>
-          </cell>
-          <cell r="C13">
-            <v>0.14099999999999999</v>
-          </cell>
-          <cell r="H13">
-            <v>23.2</v>
-          </cell>
-          <cell r="I13">
-            <v>-1.1000000000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>21</v>
-          </cell>
-          <cell r="C14">
-            <v>0.42299999999999999</v>
-          </cell>
-          <cell r="H14">
-            <v>27</v>
-          </cell>
-          <cell r="I14">
-            <v>-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>22</v>
-          </cell>
-          <cell r="C15">
-            <v>2.3839999999999999</v>
-          </cell>
-          <cell r="H15">
-            <v>36</v>
-          </cell>
-          <cell r="I15">
-            <v>-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>27</v>
-          </cell>
-          <cell r="C16">
-            <v>2.3940000000000001</v>
-          </cell>
-          <cell r="H16">
-            <v>45</v>
-          </cell>
-          <cell r="I16">
-            <v>-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>30</v>
-          </cell>
-          <cell r="C17">
-            <v>2.3079999999999998</v>
-          </cell>
-          <cell r="H17">
-            <v>49</v>
-          </cell>
-          <cell r="I17">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>50</v>
-          </cell>
-          <cell r="I18">
-            <v>-0.69399999999999995</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>1.8640000000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2</v>
-          </cell>
-          <cell r="C26">
-            <v>1.847</v>
-          </cell>
-          <cell r="H26">
-            <v>0</v>
-          </cell>
-          <cell r="I26">
-            <v>1.8839999999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>5</v>
-          </cell>
-          <cell r="C27">
-            <v>1.8380000000000001</v>
-          </cell>
-          <cell r="H27">
-            <v>5</v>
-          </cell>
-          <cell r="I27">
-            <v>1.861</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>7</v>
-          </cell>
-          <cell r="C28">
-            <v>0.219</v>
-          </cell>
-          <cell r="H28">
-            <v>10</v>
-          </cell>
-          <cell r="I28">
-            <v>1.8089999999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>8</v>
-          </cell>
-          <cell r="C29">
-            <v>-1.2E-2</v>
-          </cell>
-          <cell r="H29">
-            <v>12</v>
-          </cell>
-          <cell r="I29">
-            <v>1.129</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>9</v>
-          </cell>
-          <cell r="C30">
-            <v>-0.20200000000000001</v>
-          </cell>
-          <cell r="H30">
-            <v>15</v>
-          </cell>
-          <cell r="I30">
-            <v>0.308</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>10</v>
-          </cell>
-          <cell r="C31">
-            <v>-0.251</v>
-          </cell>
-          <cell r="H31">
-            <v>20</v>
-          </cell>
-          <cell r="I31">
-            <v>-0.28100000000000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>11</v>
-          </cell>
-          <cell r="C32">
-            <v>-0.20300000000000001</v>
-          </cell>
-          <cell r="H32">
-            <v>25</v>
-          </cell>
-          <cell r="I32">
-            <v>-0.95099999999999996</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>12</v>
-          </cell>
-          <cell r="C33">
-            <v>-6.0999999999999999E-2</v>
-          </cell>
-          <cell r="H33">
-            <v>25.22</v>
-          </cell>
-          <cell r="I33">
-            <v>-1.1000000000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>13</v>
-          </cell>
-          <cell r="C34">
-            <v>0.224</v>
-          </cell>
-          <cell r="H34">
-            <v>29</v>
-          </cell>
-          <cell r="I34">
-            <v>-2.99</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>15</v>
-          </cell>
-          <cell r="C35">
-            <v>2.2490000000000001</v>
-          </cell>
-          <cell r="H35">
-            <v>38</v>
-          </cell>
-          <cell r="I35">
-            <v>-2.99</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>20</v>
-          </cell>
-          <cell r="C36">
-            <v>2.2589999999999999</v>
-          </cell>
-          <cell r="H36">
-            <v>47</v>
-          </cell>
-          <cell r="I36">
-            <v>-2.99</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>25</v>
-          </cell>
-          <cell r="C37">
-            <v>2.2639999999999998</v>
-          </cell>
-          <cell r="H37">
-            <v>51.38</v>
-          </cell>
-          <cell r="I37">
-            <v>-0.8</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>55</v>
-          </cell>
-          <cell r="I38">
-            <v>-0.29099999999999998</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>58</v>
-          </cell>
-          <cell r="I39">
-            <v>-9.1999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>60</v>
-          </cell>
-          <cell r="I40">
-            <v>0.70099999999999996</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>62</v>
-          </cell>
-          <cell r="I41">
-            <v>1.4590000000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>65</v>
-          </cell>
-          <cell r="I42">
-            <v>1.45</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>0.83899999999999997</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>5</v>
-          </cell>
-          <cell r="C47">
-            <v>0.84499999999999997</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>6</v>
-          </cell>
-          <cell r="C48">
-            <v>2.0350000000000001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>10</v>
-          </cell>
-          <cell r="C49">
-            <v>2.024</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>11</v>
-          </cell>
-          <cell r="C50">
-            <v>0.38800000000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>13</v>
-          </cell>
-          <cell r="C51">
-            <v>3.9E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>15</v>
-          </cell>
-          <cell r="C52">
-            <v>-0.13600000000000001</v>
-          </cell>
-          <cell r="H52">
-            <v>0</v>
-          </cell>
-          <cell r="I52">
-            <v>1.925</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>16</v>
-          </cell>
-          <cell r="C53">
-            <v>-0.121</v>
-          </cell>
-          <cell r="H53">
-            <v>5</v>
-          </cell>
-          <cell r="I53">
-            <v>1.9119999999999999</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>17</v>
-          </cell>
-          <cell r="C54">
-            <v>-0.161</v>
-          </cell>
-          <cell r="H54">
-            <v>6.2200000000000006</v>
-          </cell>
-          <cell r="I54">
-            <v>1.91</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>19</v>
-          </cell>
-          <cell r="C55">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="H55">
-            <v>16</v>
-          </cell>
-          <cell r="I55">
-            <v>-2.98</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>21</v>
-          </cell>
-          <cell r="C56">
-            <v>0.374</v>
-          </cell>
-          <cell r="H56">
-            <v>25</v>
-          </cell>
-          <cell r="I56">
-            <v>-2.98</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>22</v>
-          </cell>
-          <cell r="C57">
-            <v>2.4990000000000001</v>
-          </cell>
-          <cell r="H57">
-            <v>34</v>
-          </cell>
-          <cell r="I57">
-            <v>-2.98</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>25</v>
-          </cell>
-          <cell r="C58">
-            <v>2.5089999999999999</v>
-          </cell>
-          <cell r="H58">
-            <v>44.06</v>
-          </cell>
-          <cell r="I58">
-            <v>2.0499999999999998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>45</v>
-          </cell>
-          <cell r="I59">
-            <v>2.0379999999999998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>50</v>
-          </cell>
-          <cell r="I60">
-            <v>2.0249999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="Bhangar Branch khal (2)"/>
       <sheetName val="Offtake khal"/>
       <sheetName val="Outfall khal"/>
@@ -15197,7 +14606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V421"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
@@ -15601,28 +15010,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -15654,10 +15063,10 @@
         <v>110</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="D3" s="44">
+      <c r="D3" s="49">
         <v>0</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="49"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
@@ -15667,19 +15076,19 @@
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="I4" s="42" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
@@ -15856,11 +15265,11 @@
         <v>-0.28299999999999997</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="45">
+      <c r="I9" s="41">
         <f>I8+(J8-J9)*1.5</f>
         <v>12.5585</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="42">
         <v>-1.6</v>
       </c>
       <c r="K9" s="39">
@@ -15902,11 +15311,11 @@
         <v>-0.23899999999999999</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="47">
+      <c r="I10" s="43">
         <f>I9+2.25</f>
         <v>14.8085</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="44">
         <f>J9</f>
         <v>-1.6</v>
       </c>
@@ -15951,11 +15360,11 @@
         <v>-0.34250000000000003</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="45">
+      <c r="I11" s="41">
         <f>I10+2.25</f>
         <v>17.058500000000002</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <f>J9</f>
         <v>-1.6</v>
       </c>
@@ -15997,11 +15406,11 @@
         <v>-0.34299999999999997</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="45">
+      <c r="I12" s="41">
         <f>I11+(J12-J11)*1.5</f>
         <v>20.477000000000004</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="45">
         <v>0.67900000000000005</v>
       </c>
       <c r="K12" s="39">
@@ -16230,10 +15639,10 @@
       <c r="E18" s="38"/>
       <c r="F18" s="37"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16258,10 +15667,10 @@
         <v>110</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="44">
+      <c r="D19" s="49">
         <v>0.1</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="49"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
@@ -16271,22 +15680,22 @@
       <c r="P19" s="24"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
@@ -16508,11 +15917,11 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="H26" s="37"/>
-      <c r="I26" s="45">
+      <c r="I26" s="41">
         <f>I25+(J25-J26)*1.5</f>
         <v>13.054500000000001</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="42">
         <v>-1.6</v>
       </c>
       <c r="K26" s="39">
@@ -16554,11 +15963,11 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="H27" s="37"/>
-      <c r="I27" s="47">
+      <c r="I27" s="43">
         <f>I26+2.25</f>
         <v>15.304500000000001</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="44">
         <f>J26</f>
         <v>-1.6</v>
       </c>
@@ -16600,11 +16009,11 @@
         <v>-0.51049999999999995</v>
       </c>
       <c r="H28" s="37"/>
-      <c r="I28" s="45">
+      <c r="I28" s="41">
         <f>I27+2.25</f>
         <v>17.554500000000001</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="42">
         <f>J26</f>
         <v>-1.6</v>
       </c>
@@ -16649,11 +16058,11 @@
         <v>-0.66250000000000009</v>
       </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="45">
+      <c r="I29" s="41">
         <f>I28+(J29-J28)*1.5</f>
         <v>20.302500000000002</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="45">
         <v>0.23200000000000001</v>
       </c>
       <c r="K29" s="39">
@@ -16864,7 +16273,7 @@
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="39"/>
       <c r="L34" s="37"/>
       <c r="M34" s="39"/>
@@ -16943,10 +16352,10 @@
       <c r="E37" s="38"/>
       <c r="F37" s="37"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="50"/>
+      <c r="I37" s="51"/>
       <c r="J37" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16971,10 +16380,10 @@
         <v>110</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="44">
+      <c r="D38" s="49">
         <v>0.2</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="49"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
@@ -16984,22 +16393,22 @@
       <c r="P38" s="35"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -17517,11 +16926,11 @@
         <v>-0.32100000000000001</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="45">
+      <c r="I53" s="41">
         <f>I52+(J52-J53)*1.5</f>
         <v>12.108499999999999</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="42">
         <v>-1.6</v>
       </c>
       <c r="K53" s="39">
@@ -17562,11 +16971,11 @@
         <v>1.6205000000000001</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="47">
+      <c r="I54" s="43">
         <f>I53+2.25</f>
         <v>14.358499999999999</v>
       </c>
-      <c r="J54" s="48">
+      <c r="J54" s="44">
         <f>J53</f>
         <v>-1.6</v>
       </c>
@@ -17607,11 +17016,11 @@
         <f t="shared" si="18"/>
         <v>1.1824999999999999</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="41">
         <f>I54+2.25</f>
         <v>16.608499999999999</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="42">
         <f>J53</f>
         <v>-1.6</v>
       </c>
@@ -17654,11 +17063,11 @@
         <f t="shared" si="18"/>
         <v>1.22</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="41">
         <f>I55+(J56-J55)*1.5</f>
         <v>19.3565</v>
       </c>
-      <c r="J56" s="49">
+      <c r="J56" s="45">
         <v>0.23200000000000001</v>
       </c>
       <c r="K56" s="39">
@@ -17810,10 +17219,10 @@
         <v>110</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="44">
+      <c r="D63" s="49">
         <v>0.3</v>
       </c>
-      <c r="E63" s="44"/>
+      <c r="E63" s="49"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
@@ -17823,22 +17232,22 @@
       <c r="P63" s="35"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I64" s="42" t="s">
+      <c r="I64" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
@@ -18399,11 +17808,11 @@
         <v>-0.87250000000000005</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="45">
+      <c r="I79" s="41">
         <f>I78+(J78-J79)*1.5</f>
         <v>19.466999999999999</v>
       </c>
-      <c r="J79" s="46">
+      <c r="J79" s="42">
         <v>-1.6</v>
       </c>
       <c r="K79" s="39">
@@ -18443,11 +17852,11 @@
         <f t="shared" si="26"/>
         <v>-0.59699999999999998</v>
       </c>
-      <c r="I80" s="47">
+      <c r="I80" s="43">
         <f>I79+2.25</f>
         <v>21.716999999999999</v>
       </c>
-      <c r="J80" s="48">
+      <c r="J80" s="44">
         <f>J79</f>
         <v>-1.6</v>
       </c>
@@ -18490,11 +17899,11 @@
         <f t="shared" si="26"/>
         <v>-0.16899999999999998</v>
       </c>
-      <c r="I81" s="45">
+      <c r="I81" s="41">
         <f>I80+2.25</f>
         <v>23.966999999999999</v>
       </c>
-      <c r="J81" s="46">
+      <c r="J81" s="42">
         <f>J79</f>
         <v>-1.6</v>
       </c>
@@ -18533,11 +17942,11 @@
         <f t="shared" si="26"/>
         <v>0.42150000000000004</v>
       </c>
-      <c r="I82" s="45">
+      <c r="I82" s="41">
         <f>I81+(J82-J81)*1.5</f>
         <v>25.466999999999999</v>
       </c>
-      <c r="J82" s="49">
+      <c r="J82" s="45">
         <v>-0.6</v>
       </c>
       <c r="K82" s="39">
@@ -18665,10 +18074,10 @@
         <v>110</v>
       </c>
       <c r="C86" s="23"/>
-      <c r="D86" s="44">
+      <c r="D86" s="49">
         <v>0.4</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="49"/>
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
@@ -18678,22 +18087,22 @@
       <c r="P86" s="24"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
       <c r="H87" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
       <c r="P87" s="30"/>
@@ -19017,11 +18426,11 @@
         <v>-0.55800000000000005</v>
       </c>
       <c r="H95" s="37"/>
-      <c r="I95" s="45">
+      <c r="I95" s="41">
         <f>I94+(J94-J95)*1.5</f>
         <v>23.8</v>
       </c>
-      <c r="J95" s="46">
+      <c r="J95" s="42">
         <v>-1.6</v>
       </c>
       <c r="K95" s="39">
@@ -19063,11 +18472,11 @@
         <v>-0.83099999999999996</v>
       </c>
       <c r="H96" s="37"/>
-      <c r="I96" s="47">
+      <c r="I96" s="43">
         <f>I95+2.25</f>
         <v>26.05</v>
       </c>
-      <c r="J96" s="48">
+      <c r="J96" s="44">
         <f>J95</f>
         <v>-1.6</v>
       </c>
@@ -19112,11 +18521,11 @@
         <v>-0.97049999999999992</v>
       </c>
       <c r="H97" s="37"/>
-      <c r="I97" s="45">
+      <c r="I97" s="41">
         <f>I96+2.25</f>
         <v>28.3</v>
       </c>
-      <c r="J97" s="46">
+      <c r="J97" s="42">
         <f>J95</f>
         <v>-1.6</v>
       </c>
@@ -19158,11 +18567,11 @@
         <v>-0.97249999999999992</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="45">
+      <c r="I98" s="41">
         <f>I97+(J98-J97)*1.5</f>
         <v>30.968500000000002</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="45">
         <v>0.17899999999999999</v>
       </c>
       <c r="K98" s="39">
@@ -19402,10 +18811,10 @@
       <c r="E105" s="38"/>
       <c r="F105" s="37"/>
       <c r="G105" s="39"/>
-      <c r="H105" s="50" t="s">
+      <c r="H105" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="I105" s="50"/>
+      <c r="I105" s="51"/>
       <c r="J105" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -19430,10 +18839,10 @@
         <v>110</v>
       </c>
       <c r="C106" s="23"/>
-      <c r="D106" s="44">
+      <c r="D106" s="49">
         <v>0.5</v>
       </c>
-      <c r="E106" s="44"/>
+      <c r="E106" s="49"/>
       <c r="J106" s="38"/>
       <c r="K106" s="38"/>
       <c r="L106" s="38"/>
@@ -19443,17 +18852,17 @@
       <c r="P106" s="24"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
       <c r="N107" s="25"/>
       <c r="O107" s="25"/>
       <c r="P107" s="30"/>
@@ -19905,11 +19314,11 @@
         <v>-0.65100000000000002</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="45">
+      <c r="I119" s="41">
         <f>I118+(J118-J119)*1.5</f>
         <v>22.7685</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="42">
         <v>-1.6</v>
       </c>
       <c r="K119" s="39">
@@ -19951,11 +19360,11 @@
         <v>-0.46950000000000003</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="47">
+      <c r="I120" s="43">
         <f>I119+2.25</f>
         <v>25.0185</v>
       </c>
-      <c r="J120" s="48">
+      <c r="J120" s="44">
         <f>J119</f>
         <v>-1.6</v>
       </c>
@@ -19999,11 +19408,11 @@
         <v>-0.16899999999999998</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="45">
+      <c r="I121" s="41">
         <f>I120+2.25</f>
         <v>27.2685</v>
       </c>
-      <c r="J121" s="46">
+      <c r="J121" s="42">
         <f>J119</f>
         <v>-1.6</v>
       </c>
@@ -20045,11 +19454,11 @@
         <v>0.4375</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="45">
+      <c r="I122" s="41">
         <f>I121+(J122-J121)*1.5</f>
         <v>29.7285</v>
       </c>
-      <c r="J122" s="49">
+      <c r="J122" s="45">
         <v>0.04</v>
       </c>
       <c r="K122" s="39">
@@ -20194,10 +19603,10 @@
         <v>110</v>
       </c>
       <c r="C128" s="23"/>
-      <c r="D128" s="44">
+      <c r="D128" s="49">
         <v>0.6</v>
       </c>
-      <c r="E128" s="44"/>
+      <c r="E128" s="49"/>
       <c r="J128" s="38"/>
       <c r="K128" s="38"/>
       <c r="L128" s="38"/>
@@ -20207,17 +19616,17 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="42"/>
-      <c r="M129" s="42"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="50"/>
+      <c r="M129" s="50"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
       <c r="P129" s="30"/>
@@ -20632,11 +20041,11 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="H139" s="37"/>
-      <c r="I139" s="45">
+      <c r="I139" s="41">
         <f>I138+(J138-J139)*1.5</f>
         <v>22.933</v>
       </c>
-      <c r="J139" s="46">
+      <c r="J139" s="42">
         <v>-1.6</v>
       </c>
       <c r="K139" s="39">
@@ -20680,11 +20089,11 @@
         <v>-1.2845</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="47">
+      <c r="I140" s="43">
         <f>I139+2.25</f>
         <v>25.183</v>
       </c>
-      <c r="J140" s="48">
+      <c r="J140" s="44">
         <f>J139</f>
         <v>-1.6</v>
       </c>
@@ -20727,11 +20136,11 @@
         <v>-1.2875000000000001</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="45">
+      <c r="I141" s="41">
         <f>I140+2.25</f>
         <v>27.433</v>
       </c>
-      <c r="J141" s="46">
+      <c r="J141" s="42">
         <f>J139</f>
         <v>-1.6</v>
       </c>
@@ -20774,11 +20183,11 @@
         <v>-2.2469999999999999</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="45">
+      <c r="I142" s="41">
         <f>I141+(J142-J141)*1.5</f>
         <v>28.632999999999999</v>
       </c>
-      <c r="J142" s="49">
+      <c r="J142" s="45">
         <v>-0.8</v>
       </c>
       <c r="K142" s="39">
@@ -21075,10 +20484,10 @@
         <v>110</v>
       </c>
       <c r="C150" s="23"/>
-      <c r="D150" s="44">
+      <c r="D150" s="49">
         <v>0.7</v>
       </c>
-      <c r="E150" s="44"/>
+      <c r="E150" s="49"/>
       <c r="J150" s="38"/>
       <c r="K150" s="38"/>
       <c r="L150" s="38"/>
@@ -21088,17 +20497,17 @@
       <c r="P150" s="24"/>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
-      <c r="G151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="42"/>
-      <c r="L151" s="42"/>
-      <c r="M151" s="42"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
+      <c r="I151" s="50"/>
+      <c r="J151" s="50"/>
+      <c r="K151" s="50"/>
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
       <c r="N151" s="25"/>
       <c r="O151" s="25"/>
       <c r="P151" s="30"/>
@@ -21615,11 +21024,11 @@
         <v>-0.62250000000000005</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="45">
+      <c r="I165" s="41">
         <f>I164+(J164-J165)*1.5</f>
         <v>23.125</v>
       </c>
-      <c r="J165" s="46">
+      <c r="J165" s="42">
         <v>-1.6</v>
       </c>
       <c r="K165" s="39">
@@ -21662,11 +21071,11 @@
         <v>-0.59749999999999992</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="47">
+      <c r="I166" s="43">
         <f>I165+2.25</f>
         <v>25.375</v>
       </c>
-      <c r="J166" s="48">
+      <c r="J166" s="44">
         <f>J165</f>
         <v>-1.6</v>
       </c>
@@ -21694,11 +21103,11 @@
       <c r="E167" s="39"/>
       <c r="F167" s="37"/>
       <c r="G167" s="39"/>
-      <c r="I167" s="45">
+      <c r="I167" s="41">
         <f>I166+2.25</f>
         <v>27.625</v>
       </c>
-      <c r="J167" s="46">
+      <c r="J167" s="42">
         <f>J165</f>
         <v>-1.6</v>
       </c>
@@ -21724,10 +21133,10 @@
         <v>110</v>
       </c>
       <c r="C168" s="23"/>
-      <c r="D168" s="44">
+      <c r="D168" s="49">
         <v>0.8</v>
       </c>
-      <c r="E168" s="44"/>
+      <c r="E168" s="49"/>
       <c r="J168" s="38"/>
       <c r="K168" s="38"/>
       <c r="L168" s="38"/>
@@ -21737,17 +21146,17 @@
       <c r="P168" s="24"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B169" s="42"/>
-      <c r="C169" s="42"/>
-      <c r="D169" s="42"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
-      <c r="G169" s="42"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="42"/>
-      <c r="L169" s="42"/>
-      <c r="M169" s="42"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="50"/>
+      <c r="M169" s="50"/>
       <c r="N169" s="25"/>
       <c r="O169" s="25"/>
       <c r="P169" s="30"/>
@@ -22298,11 +21707,11 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="45">
+      <c r="I184" s="41">
         <f>I183+(J183-J184)*1.5</f>
         <v>23.9</v>
       </c>
-      <c r="J184" s="46">
+      <c r="J184" s="42">
         <v>-1.6</v>
       </c>
       <c r="K184" s="39">
@@ -22329,11 +21738,11 @@
       <c r="E185" s="39"/>
       <c r="F185" s="37"/>
       <c r="G185" s="39"/>
-      <c r="I185" s="47">
+      <c r="I185" s="43">
         <f>I184+2.25</f>
         <v>26.15</v>
       </c>
-      <c r="J185" s="48">
+      <c r="J185" s="44">
         <f>J184</f>
         <v>-1.6</v>
       </c>
@@ -22361,11 +21770,11 @@
       <c r="E186" s="39"/>
       <c r="F186" s="37"/>
       <c r="G186" s="39"/>
-      <c r="I186" s="45">
+      <c r="I186" s="41">
         <f>I185+2.25</f>
         <v>28.4</v>
       </c>
-      <c r="J186" s="46">
+      <c r="J186" s="42">
         <f>J184</f>
         <v>-1.6</v>
       </c>
@@ -22391,11 +21800,11 @@
       <c r="E187" s="39"/>
       <c r="F187" s="37"/>
       <c r="G187" s="39"/>
-      <c r="I187" s="45">
+      <c r="I187" s="41">
         <f>I186+(J187-J186)*1.5</f>
         <v>29.375</v>
       </c>
-      <c r="J187" s="49">
+      <c r="J187" s="45">
         <v>-0.95</v>
       </c>
       <c r="K187" s="39">
@@ -22545,10 +21954,10 @@
         <v>110</v>
       </c>
       <c r="C193" s="23"/>
-      <c r="D193" s="44">
+      <c r="D193" s="49">
         <v>0.9</v>
       </c>
-      <c r="E193" s="44"/>
+      <c r="E193" s="49"/>
       <c r="J193" s="38"/>
       <c r="K193" s="38"/>
       <c r="L193" s="38"/>
@@ -22558,17 +21967,17 @@
       <c r="P193" s="24"/>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B194" s="42"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="42"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
-      <c r="G194" s="42"/>
-      <c r="I194" s="42"/>
-      <c r="J194" s="42"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
-      <c r="M194" s="42"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="50"/>
+      <c r="M194" s="50"/>
       <c r="N194" s="25"/>
       <c r="O194" s="25"/>
       <c r="P194" s="30"/>
@@ -23158,11 +22567,11 @@
         <v>5.8740000000000006</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="45">
+      <c r="I210" s="41">
         <f>I209+(J209-J210)*1.5</f>
         <v>16.328500000000002</v>
       </c>
-      <c r="J210" s="46">
+      <c r="J210" s="42">
         <v>-1.6</v>
       </c>
       <c r="K210" s="39">
@@ -23206,10 +22615,10 @@
         <v>110</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="44">
+      <c r="D212" s="49">
         <v>1</v>
       </c>
-      <c r="E212" s="44"/>
+      <c r="E212" s="49"/>
       <c r="J212" s="38"/>
       <c r="K212" s="38"/>
       <c r="L212" s="38"/>
@@ -23219,17 +22628,17 @@
       <c r="P212" s="24"/>
     </row>
     <row r="213" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B213" s="42"/>
-      <c r="C213" s="42"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="I213" s="42"/>
-      <c r="J213" s="42"/>
-      <c r="K213" s="42"/>
-      <c r="L213" s="42"/>
-      <c r="M213" s="42"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="50"/>
+      <c r="F213" s="50"/>
+      <c r="G213" s="50"/>
+      <c r="I213" s="50"/>
+      <c r="J213" s="50"/>
+      <c r="K213" s="50"/>
+      <c r="L213" s="50"/>
+      <c r="M213" s="50"/>
       <c r="N213" s="25"/>
       <c r="O213" s="25"/>
       <c r="P213" s="30"/>
@@ -23614,11 +23023,11 @@
         <v>-0.433</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="45">
+      <c r="I224" s="41">
         <f>I223+(J223-J224)*1.5</f>
         <v>12.98</v>
       </c>
-      <c r="J224" s="46">
+      <c r="J224" s="42">
         <v>-1.6</v>
       </c>
       <c r="K224" s="39">
@@ -23659,11 +23068,11 @@
         <v>-5.4999999999999993E-2</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="47">
+      <c r="I225" s="43">
         <f>I224+2.25</f>
         <v>15.23</v>
       </c>
-      <c r="J225" s="48">
+      <c r="J225" s="44">
         <f>J224</f>
         <v>-1.6</v>
       </c>
@@ -23706,11 +23115,11 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="45">
+      <c r="I226" s="41">
         <f>I225+2.25</f>
         <v>17.48</v>
       </c>
-      <c r="J226" s="46">
+      <c r="J226" s="42">
         <f>J224</f>
         <v>-1.6</v>
       </c>
@@ -23754,11 +23163,11 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="45">
+      <c r="I227" s="41">
         <f>I226+(J227-J226)*1.5</f>
         <v>18.38</v>
       </c>
-      <c r="J227" s="49">
+      <c r="J227" s="45">
         <v>-1</v>
       </c>
       <c r="K227" s="39">
@@ -23787,7 +23196,7 @@
       <c r="G228" s="39"/>
       <c r="H228" s="37"/>
       <c r="I228" s="31"/>
-      <c r="J228" s="52"/>
+      <c r="J228" s="47"/>
       <c r="K228" s="39"/>
       <c r="L228" s="37"/>
       <c r="M228" s="39"/>
@@ -23802,10 +23211,10 @@
         <v>110</v>
       </c>
       <c r="C229" s="23"/>
-      <c r="D229" s="44">
+      <c r="D229" s="49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E229" s="44"/>
+      <c r="E229" s="49"/>
       <c r="J229" s="38"/>
       <c r="K229" s="38"/>
       <c r="L229" s="38"/>
@@ -23815,17 +23224,17 @@
       <c r="P229" s="24"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B230" s="42"/>
-      <c r="C230" s="42"/>
-      <c r="D230" s="42"/>
-      <c r="E230" s="42"/>
-      <c r="F230" s="42"/>
-      <c r="G230" s="42"/>
-      <c r="I230" s="42"/>
-      <c r="J230" s="42"/>
-      <c r="K230" s="42"/>
-      <c r="L230" s="42"/>
-      <c r="M230" s="42"/>
+      <c r="B230" s="50"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="50"/>
+      <c r="I230" s="50"/>
+      <c r="J230" s="50"/>
+      <c r="K230" s="50"/>
+      <c r="L230" s="50"/>
+      <c r="M230" s="50"/>
       <c r="N230" s="25"/>
       <c r="O230" s="25"/>
       <c r="P230" s="30"/>
@@ -24286,11 +23695,11 @@
         <v>2.8529999999999998</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="45">
+      <c r="I243" s="41">
         <f>I242+(J242-J243)*1.5</f>
         <v>14.022</v>
       </c>
-      <c r="J243" s="46">
+      <c r="J243" s="42">
         <v>-1.6</v>
       </c>
       <c r="K243" s="39">
@@ -24331,11 +23740,11 @@
         <v>0.46299999999999997</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="47">
+      <c r="I244" s="43">
         <f>I243+2.25</f>
         <v>16.271999999999998</v>
       </c>
-      <c r="J244" s="48">
+      <c r="J244" s="44">
         <f>J243</f>
         <v>-1.6</v>
       </c>
@@ -24377,11 +23786,11 @@
         <v>-1.1720000000000002</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="45">
+      <c r="I245" s="41">
         <f>I244+2.25</f>
         <v>18.521999999999998</v>
       </c>
-      <c r="J245" s="46">
+      <c r="J245" s="42">
         <f>J243</f>
         <v>-1.6</v>
       </c>
@@ -24424,11 +23833,11 @@
         <f t="shared" si="84"/>
         <v>-0.70850000000000002</v>
       </c>
-      <c r="I246" s="45">
+      <c r="I246" s="41">
         <f>I245+(J246-J245)*1.5</f>
         <v>22.351499999999998</v>
       </c>
-      <c r="J246" s="49">
+      <c r="J246" s="45">
         <v>0.95299999999999996</v>
       </c>
       <c r="K246" s="39">
@@ -24686,10 +24095,10 @@
         <v>110</v>
       </c>
       <c r="C258" s="23"/>
-      <c r="D258" s="44">
+      <c r="D258" s="49">
         <v>1.2</v>
       </c>
-      <c r="E258" s="44"/>
+      <c r="E258" s="49"/>
       <c r="J258" s="38"/>
       <c r="K258" s="38"/>
       <c r="L258" s="38"/>
@@ -25154,11 +24563,11 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="H271" s="23"/>
-      <c r="I271" s="45">
+      <c r="I271" s="41">
         <f>I270+(J270-J271)*1.5</f>
         <v>21.351500000000001</v>
       </c>
-      <c r="J271" s="46">
+      <c r="J271" s="42">
         <v>-1.6</v>
       </c>
       <c r="K271" s="39">
@@ -25199,11 +24608,11 @@
         <v>2.948</v>
       </c>
       <c r="H272" s="23"/>
-      <c r="I272" s="47">
+      <c r="I272" s="43">
         <f>I271+2.25</f>
         <v>23.601500000000001</v>
       </c>
-      <c r="J272" s="48">
+      <c r="J272" s="44">
         <f>J271</f>
         <v>-1.6</v>
       </c>
@@ -25245,11 +24654,11 @@
         <v>1.784</v>
       </c>
       <c r="H273" s="23"/>
-      <c r="I273" s="45">
+      <c r="I273" s="41">
         <f>I272+2.25</f>
         <v>25.851500000000001</v>
       </c>
-      <c r="J273" s="46">
+      <c r="J273" s="42">
         <f>J271</f>
         <v>-1.6</v>
       </c>
@@ -25290,11 +24699,11 @@
         <f t="shared" si="90"/>
         <v>1.1535</v>
       </c>
-      <c r="I274" s="45">
+      <c r="I274" s="41">
         <f>I273+(J274-J273)*1.5</f>
         <v>30.201500000000003</v>
       </c>
-      <c r="J274" s="49">
+      <c r="J274" s="45">
         <v>1.3</v>
       </c>
       <c r="K274" s="39">
@@ -25364,10 +24773,10 @@
       <c r="E276" s="38"/>
       <c r="F276" s="37"/>
       <c r="G276" s="39"/>
-      <c r="H276" s="50" t="s">
+      <c r="H276" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="I276" s="50"/>
+      <c r="I276" s="51"/>
       <c r="J276" s="37" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -25392,10 +24801,10 @@
         <v>110</v>
       </c>
       <c r="C277" s="23"/>
-      <c r="D277" s="44">
+      <c r="D277" s="49">
         <v>1.3</v>
       </c>
-      <c r="E277" s="44"/>
+      <c r="E277" s="49"/>
       <c r="J277" s="38"/>
       <c r="K277" s="38"/>
       <c r="L277" s="38"/>
@@ -25771,11 +25180,11 @@
         <v>0.92249999999999999</v>
       </c>
       <c r="H288" s="23"/>
-      <c r="I288" s="45">
+      <c r="I288" s="41">
         <f>I287+(J287-J288)*1.5</f>
         <v>11.3355</v>
       </c>
-      <c r="J288" s="46">
+      <c r="J288" s="42">
         <v>-1.6</v>
       </c>
       <c r="K288" s="39">
@@ -25819,11 +25228,11 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="H289" s="23"/>
-      <c r="I289" s="47">
+      <c r="I289" s="43">
         <f>I288+2.25</f>
         <v>13.5855</v>
       </c>
-      <c r="J289" s="48">
+      <c r="J289" s="44">
         <f>J288</f>
         <v>-1.6</v>
       </c>
@@ -25850,10 +25259,10 @@
         <v>110</v>
       </c>
       <c r="C290" s="23"/>
-      <c r="D290" s="44">
+      <c r="D290" s="49">
         <v>1.4</v>
       </c>
-      <c r="E290" s="44"/>
+      <c r="E290" s="49"/>
       <c r="J290" s="38"/>
       <c r="K290" s="38"/>
       <c r="L290" s="38"/>
@@ -26318,11 +25727,11 @@
         <v>-0.35849999999999999</v>
       </c>
       <c r="H303" s="23"/>
-      <c r="I303" s="45">
+      <c r="I303" s="41">
         <f>I302+(J302-J303)*1.5</f>
         <v>11.6675</v>
       </c>
-      <c r="J303" s="46">
+      <c r="J303" s="42">
         <v>-1.6</v>
       </c>
       <c r="K303" s="39">
@@ -26363,11 +25772,11 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="H304" s="23"/>
-      <c r="I304" s="47">
+      <c r="I304" s="43">
         <f>I303+2.25</f>
         <v>13.9175</v>
       </c>
-      <c r="J304" s="48">
+      <c r="J304" s="44">
         <f>J303</f>
         <v>-1.6</v>
       </c>
@@ -26409,11 +25818,11 @@
         <v>-1.2500000000000001E-2</v>
       </c>
       <c r="H305" s="23"/>
-      <c r="I305" s="45">
+      <c r="I305" s="41">
         <f>I304+2.25</f>
         <v>16.1675</v>
       </c>
-      <c r="J305" s="46">
+      <c r="J305" s="42">
         <f>J303</f>
         <v>-1.6</v>
       </c>
@@ -26454,11 +25863,11 @@
         <f t="shared" si="102"/>
         <v>-2.7499999999999997E-2</v>
       </c>
-      <c r="I306" s="45">
+      <c r="I306" s="41">
         <f>I305+(J306-J305)*1.5</f>
         <v>18.567500000000003</v>
       </c>
-      <c r="J306" s="49">
+      <c r="J306" s="45">
         <v>0</v>
       </c>
       <c r="K306" s="39">
@@ -26526,10 +25935,10 @@
         <v>110</v>
       </c>
       <c r="C308" s="23"/>
-      <c r="D308" s="44">
+      <c r="D308" s="49">
         <v>1.5</v>
       </c>
-      <c r="E308" s="44"/>
+      <c r="E308" s="49"/>
       <c r="J308" s="38"/>
       <c r="K308" s="38"/>
       <c r="L308" s="38"/>
@@ -26756,11 +26165,11 @@
         <v>-0.85150000000000003</v>
       </c>
       <c r="H314" s="37"/>
-      <c r="I314" s="45">
+      <c r="I314" s="41">
         <f>I313+(J313-J314)*1.5</f>
         <v>7.4160000000000004</v>
       </c>
-      <c r="J314" s="46">
+      <c r="J314" s="42">
         <v>-1.6</v>
       </c>
       <c r="K314" s="39">
@@ -26803,11 +26212,11 @@
         <f t="shared" si="108"/>
         <v>-1.8919999999999999</v>
       </c>
-      <c r="I315" s="47">
+      <c r="I315" s="43">
         <f>I314+2.25</f>
         <v>9.6660000000000004</v>
       </c>
-      <c r="J315" s="48">
+      <c r="J315" s="44">
         <f>J314</f>
         <v>-1.6</v>
       </c>
@@ -26849,11 +26258,11 @@
         <f t="shared" si="108"/>
         <v>-1.895</v>
       </c>
-      <c r="I316" s="45">
+      <c r="I316" s="41">
         <f>I315+2.25</f>
         <v>11.916</v>
       </c>
-      <c r="J316" s="46">
+      <c r="J316" s="42">
         <f>J314</f>
         <v>-1.6</v>
       </c>
@@ -26895,11 +26304,11 @@
         <f t="shared" si="108"/>
         <v>-0.85350000000000004</v>
       </c>
-      <c r="I317" s="45">
+      <c r="I317" s="41">
         <f>I316+(J317-J316)*1.5</f>
         <v>13.116</v>
       </c>
-      <c r="J317" s="49">
+      <c r="J317" s="45">
         <v>-0.8</v>
       </c>
       <c r="K317" s="39">
@@ -27183,10 +26592,10 @@
         <v>110</v>
       </c>
       <c r="C324" s="23"/>
-      <c r="D324" s="44">
+      <c r="D324" s="49">
         <v>1.6</v>
       </c>
-      <c r="E324" s="44"/>
+      <c r="E324" s="49"/>
       <c r="J324" s="38"/>
       <c r="K324" s="38"/>
       <c r="L324" s="38"/>
@@ -27196,17 +26605,17 @@
       <c r="P324" s="24"/>
     </row>
     <row r="325" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B325" s="42"/>
-      <c r="C325" s="42"/>
-      <c r="D325" s="42"/>
-      <c r="E325" s="42"/>
-      <c r="F325" s="42"/>
-      <c r="G325" s="42"/>
-      <c r="I325" s="42"/>
-      <c r="J325" s="42"/>
-      <c r="K325" s="42"/>
-      <c r="L325" s="42"/>
-      <c r="M325" s="42"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="50"/>
+      <c r="D325" s="50"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="50"/>
+      <c r="G325" s="50"/>
+      <c r="I325" s="50"/>
+      <c r="J325" s="50"/>
+      <c r="K325" s="50"/>
+      <c r="L325" s="50"/>
+      <c r="M325" s="50"/>
       <c r="N325" s="25"/>
       <c r="O325" s="25"/>
       <c r="P325" s="30"/>
@@ -27598,11 +27007,11 @@
         <v>-0.71050000000000002</v>
       </c>
       <c r="H336" s="37"/>
-      <c r="I336" s="45">
+      <c r="I336" s="41">
         <f>I335+(J335-J336)*1.5</f>
         <v>11.9275</v>
       </c>
-      <c r="J336" s="46">
+      <c r="J336" s="42">
         <v>-1.6</v>
       </c>
       <c r="K336" s="39">
@@ -27644,11 +27053,11 @@
         <v>-0.51549999999999996</v>
       </c>
       <c r="H337" s="37"/>
-      <c r="I337" s="47">
+      <c r="I337" s="43">
         <f>I336+2.25</f>
         <v>14.1775</v>
       </c>
-      <c r="J337" s="48">
+      <c r="J337" s="44">
         <f>J336</f>
         <v>-1.6</v>
       </c>
@@ -27693,11 +27102,11 @@
         <v>-0.2505</v>
       </c>
       <c r="H338" s="37"/>
-      <c r="I338" s="45">
+      <c r="I338" s="41">
         <f>I337+2.25</f>
         <v>16.427500000000002</v>
       </c>
-      <c r="J338" s="46">
+      <c r="J338" s="42">
         <f>J336</f>
         <v>-1.6</v>
       </c>
@@ -27739,11 +27148,11 @@
         <v>1.7500000000000016E-2</v>
       </c>
       <c r="H339" s="23"/>
-      <c r="I339" s="45">
+      <c r="I339" s="41">
         <f>I338+(J339-J338)*1.5</f>
         <v>18.722500000000004</v>
       </c>
-      <c r="J339" s="49">
+      <c r="J339" s="45">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K339" s="39">
@@ -27889,10 +27298,10 @@
         <v>110</v>
       </c>
       <c r="C343" s="23"/>
-      <c r="D343" s="44">
+      <c r="D343" s="49">
         <v>1.7</v>
       </c>
-      <c r="E343" s="44"/>
+      <c r="E343" s="49"/>
       <c r="J343" s="38"/>
       <c r="K343" s="38"/>
       <c r="L343" s="38"/>
@@ -27902,17 +27311,17 @@
       <c r="P343" s="24"/>
     </row>
     <row r="344" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B344" s="42"/>
-      <c r="C344" s="42"/>
-      <c r="D344" s="42"/>
-      <c r="E344" s="42"/>
-      <c r="F344" s="42"/>
-      <c r="G344" s="42"/>
-      <c r="I344" s="42"/>
-      <c r="J344" s="42"/>
-      <c r="K344" s="42"/>
-      <c r="L344" s="42"/>
-      <c r="M344" s="42"/>
+      <c r="B344" s="50"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="50"/>
+      <c r="E344" s="50"/>
+      <c r="F344" s="50"/>
+      <c r="G344" s="50"/>
+      <c r="I344" s="50"/>
+      <c r="J344" s="50"/>
+      <c r="K344" s="50"/>
+      <c r="L344" s="50"/>
+      <c r="M344" s="50"/>
       <c r="N344" s="25"/>
       <c r="O344" s="25"/>
       <c r="P344" s="30"/>
@@ -28284,11 +27693,11 @@
         <v>-0.13750000000000001</v>
       </c>
       <c r="H354" s="37"/>
-      <c r="I354" s="45">
+      <c r="I354" s="41">
         <f>I353+(J353-J354)*1.5</f>
         <v>11.922000000000001</v>
       </c>
-      <c r="J354" s="46">
+      <c r="J354" s="42">
         <v>-1.6</v>
       </c>
       <c r="K354" s="39">
@@ -28332,11 +27741,11 @@
         <v>-0.19974999999999998</v>
       </c>
       <c r="H355" s="37"/>
-      <c r="I355" s="47">
+      <c r="I355" s="43">
         <f>I354+2.25</f>
         <v>14.172000000000001</v>
       </c>
-      <c r="J355" s="48">
+      <c r="J355" s="44">
         <f>J354</f>
         <v>-1.6</v>
       </c>
@@ -28379,11 +27788,11 @@
         <v>-0.19850000000000001</v>
       </c>
       <c r="H356" s="37"/>
-      <c r="I356" s="45">
+      <c r="I356" s="41">
         <f>I355+2.25</f>
         <v>16.422000000000001</v>
       </c>
-      <c r="J356" s="46">
+      <c r="J356" s="42">
         <f>J354</f>
         <v>-1.6</v>
       </c>
@@ -28425,11 +27834,11 @@
         <v>-0.13650000000000001</v>
       </c>
       <c r="H357" s="37"/>
-      <c r="I357" s="45">
+      <c r="I357" s="41">
         <f>I356+(J357-J356)*1.5</f>
         <v>19.3125</v>
       </c>
-      <c r="J357" s="49">
+      <c r="J357" s="45">
         <v>0.32700000000000001</v>
       </c>
       <c r="K357" s="39">
@@ -28593,7 +28002,7 @@
       </c>
       <c r="H361" s="23"/>
       <c r="I361" s="37"/>
-      <c r="J361" s="51"/>
+      <c r="J361" s="46"/>
       <c r="K361" s="39"/>
       <c r="L361" s="37"/>
       <c r="M361" s="39"/>
@@ -28636,10 +28045,10 @@
         <v>110</v>
       </c>
       <c r="C363" s="23"/>
-      <c r="D363" s="44">
+      <c r="D363" s="49">
         <v>1.8</v>
       </c>
-      <c r="E363" s="44"/>
+      <c r="E363" s="49"/>
       <c r="J363" s="38"/>
       <c r="K363" s="38"/>
       <c r="L363" s="38"/>
@@ -28649,17 +28058,17 @@
       <c r="P363" s="24"/>
     </row>
     <row r="364" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B364" s="42"/>
-      <c r="C364" s="42"/>
-      <c r="D364" s="42"/>
-      <c r="E364" s="42"/>
-      <c r="F364" s="42"/>
-      <c r="G364" s="42"/>
-      <c r="I364" s="42"/>
-      <c r="J364" s="42"/>
-      <c r="K364" s="42"/>
-      <c r="L364" s="42"/>
-      <c r="M364" s="42"/>
+      <c r="B364" s="50"/>
+      <c r="C364" s="50"/>
+      <c r="D364" s="50"/>
+      <c r="E364" s="50"/>
+      <c r="F364" s="50"/>
+      <c r="G364" s="50"/>
+      <c r="I364" s="50"/>
+      <c r="J364" s="50"/>
+      <c r="K364" s="50"/>
+      <c r="L364" s="50"/>
+      <c r="M364" s="50"/>
       <c r="N364" s="25"/>
       <c r="O364" s="25"/>
       <c r="P364" s="30"/>
@@ -29065,11 +28474,11 @@
         <v>-0.21</v>
       </c>
       <c r="H375" s="37"/>
-      <c r="I375" s="45">
+      <c r="I375" s="41">
         <f>I374+(J374-J375)*1.5</f>
         <v>11.79</v>
       </c>
-      <c r="J375" s="46">
+      <c r="J375" s="42">
         <v>-1.6</v>
       </c>
       <c r="K375" s="39">
@@ -29110,11 +28519,11 @@
         <v>-0.20974999999999999</v>
       </c>
       <c r="H376" s="37"/>
-      <c r="I376" s="47">
+      <c r="I376" s="43">
         <f>I375+2.25</f>
         <v>14.04</v>
       </c>
-      <c r="J376" s="48">
+      <c r="J376" s="44">
         <f>J375</f>
         <v>-1.6</v>
       </c>
@@ -29157,11 +28566,11 @@
         <v>-0.14899999999999999</v>
       </c>
       <c r="H377" s="37"/>
-      <c r="I377" s="45">
+      <c r="I377" s="41">
         <f>I376+2.25</f>
         <v>16.29</v>
       </c>
-      <c r="J377" s="46">
+      <c r="J377" s="42">
         <f>J375</f>
         <v>-1.6</v>
       </c>
@@ -29202,11 +28611,11 @@
         <v>-0.129</v>
       </c>
       <c r="H378" s="23"/>
-      <c r="I378" s="45">
+      <c r="I378" s="41">
         <f>I377+(J378-J377)*1.5</f>
         <v>19.32</v>
       </c>
-      <c r="J378" s="49">
+      <c r="J378" s="45">
         <v>0.42</v>
       </c>
       <c r="K378" s="39">
@@ -29340,7 +28749,7 @@
       </c>
       <c r="H381" s="23"/>
       <c r="I381" s="37"/>
-      <c r="J381" s="51"/>
+      <c r="J381" s="46"/>
       <c r="K381" s="39"/>
       <c r="L381" s="37"/>
       <c r="M381" s="39"/>
@@ -29465,10 +28874,10 @@
         <v>110</v>
       </c>
       <c r="C389" s="23"/>
-      <c r="D389" s="44">
+      <c r="D389" s="49">
         <v>1.8420000000000001</v>
       </c>
-      <c r="E389" s="44"/>
+      <c r="E389" s="49"/>
       <c r="J389" s="38"/>
       <c r="K389" s="38"/>
       <c r="L389" s="38"/>
@@ -29478,17 +28887,17 @@
       <c r="P389" s="24"/>
     </row>
     <row r="390" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B390" s="42"/>
-      <c r="C390" s="42"/>
-      <c r="D390" s="42"/>
-      <c r="E390" s="42"/>
-      <c r="F390" s="42"/>
-      <c r="G390" s="42"/>
-      <c r="I390" s="42"/>
-      <c r="J390" s="42"/>
-      <c r="K390" s="42"/>
-      <c r="L390" s="42"/>
-      <c r="M390" s="42"/>
+      <c r="B390" s="50"/>
+      <c r="C390" s="50"/>
+      <c r="D390" s="50"/>
+      <c r="E390" s="50"/>
+      <c r="F390" s="50"/>
+      <c r="G390" s="50"/>
+      <c r="I390" s="50"/>
+      <c r="J390" s="50"/>
+      <c r="K390" s="50"/>
+      <c r="L390" s="50"/>
+      <c r="M390" s="50"/>
       <c r="N390" s="25"/>
       <c r="O390" s="25"/>
       <c r="P390" s="30"/>
@@ -29923,11 +29332,11 @@
         <v>-0.1875</v>
       </c>
       <c r="H402" s="37"/>
-      <c r="I402" s="45">
+      <c r="I402" s="41">
         <f>I401+(J401-J402)*1.5</f>
         <v>11.7</v>
       </c>
-      <c r="J402" s="46">
+      <c r="J402" s="42">
         <v>-1.6</v>
       </c>
       <c r="K402" s="39">
@@ -29969,11 +29378,11 @@
         <v>-0.15125</v>
       </c>
       <c r="H403" s="37"/>
-      <c r="I403" s="47">
+      <c r="I403" s="43">
         <f>I402+2.25</f>
         <v>13.95</v>
       </c>
-      <c r="J403" s="48">
+      <c r="J403" s="44">
         <f>J402</f>
         <v>-1.6</v>
       </c>
@@ -30015,11 +29424,11 @@
         <v>-0.16750000000000001</v>
       </c>
       <c r="H404" s="23"/>
-      <c r="I404" s="45">
+      <c r="I404" s="41">
         <f>I403+2.25</f>
         <v>16.2</v>
       </c>
-      <c r="J404" s="46">
+      <c r="J404" s="42">
         <f>J402</f>
         <v>-1.6</v>
       </c>
@@ -30063,11 +29472,11 @@
         <v>0.125</v>
       </c>
       <c r="H405" s="23"/>
-      <c r="I405" s="45">
+      <c r="I405" s="41">
         <f>I404+(J405-J404)*1.5</f>
         <v>19.125</v>
       </c>
-      <c r="J405" s="49">
+      <c r="J405" s="45">
         <v>0.35</v>
       </c>
       <c r="K405" s="39">
@@ -30323,11 +29732,11 @@
       <c r="I416" s="39"/>
       <c r="J416" s="38"/>
       <c r="K416" s="38"/>
-      <c r="L416" s="53">
+      <c r="L416" s="48">
         <f>SUM(L393:L415)</f>
         <v>25</v>
       </c>
-      <c r="M416" s="53">
+      <c r="M416" s="48">
         <f>SUM(M393:M415)</f>
         <v>-15.089937499999998</v>
       </c>
@@ -30374,8 +29783,8 @@
       <c r="E419" s="38"/>
       <c r="F419" s="23"/>
       <c r="G419" s="23"/>
-      <c r="H419" s="44"/>
-      <c r="I419" s="44"/>
+      <c r="H419" s="49"/>
+      <c r="I419" s="49"/>
       <c r="J419" s="38"/>
       <c r="K419" s="38"/>
       <c r="L419" s="38"/>
@@ -30385,17 +29794,17 @@
       <c r="P419" s="24"/>
     </row>
     <row r="420" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B420" s="42"/>
-      <c r="C420" s="42"/>
-      <c r="D420" s="42"/>
-      <c r="E420" s="42"/>
-      <c r="F420" s="42"/>
-      <c r="G420" s="42"/>
-      <c r="I420" s="42"/>
-      <c r="J420" s="42"/>
-      <c r="K420" s="42"/>
-      <c r="L420" s="42"/>
-      <c r="M420" s="42"/>
+      <c r="B420" s="50"/>
+      <c r="C420" s="50"/>
+      <c r="D420" s="50"/>
+      <c r="E420" s="50"/>
+      <c r="F420" s="50"/>
+      <c r="G420" s="50"/>
+      <c r="I420" s="50"/>
+      <c r="J420" s="50"/>
+      <c r="K420" s="50"/>
+      <c r="L420" s="50"/>
+      <c r="M420" s="50"/>
       <c r="N420" s="25"/>
       <c r="O420" s="25"/>
       <c r="P420" s="30"/>
@@ -30420,6 +29829,57 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="I129:M129"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="I151:M151"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="I169:M169"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="I194:M194"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="I213:M213"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="I230:M230"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="B325:G325"/>
+    <mergeCell ref="I325:M325"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="B344:G344"/>
+    <mergeCell ref="I344:M344"/>
     <mergeCell ref="H419:I419"/>
     <mergeCell ref="B420:G420"/>
     <mergeCell ref="I420:M420"/>
@@ -30429,57 +29889,6 @@
     <mergeCell ref="D389:E389"/>
     <mergeCell ref="B390:G390"/>
     <mergeCell ref="I390:M390"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="B325:G325"/>
-    <mergeCell ref="I325:M325"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="B344:G344"/>
-    <mergeCell ref="I344:M344"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="I213:M213"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="B230:G230"/>
-    <mergeCell ref="I230:M230"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="I169:M169"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="I194:M194"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="I129:M129"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="I151:M151"/>
-    <mergeCell ref="I87:M87"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B87:G87"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -30492,7 +29901,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -30556,8 +29965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30622,7 +30031,7 @@
       <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="2">
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -31400,8 +30809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
